--- a/examples/autonl-example.xlsx
+++ b/examples/autonl-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutoNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D83327-997E-4171-8A6D-EFA017B453ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F84EBC-8B21-44A3-AF41-707FFFCF594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,82 +20,790 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Step</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>Instruction</t>
   </si>
   <si>
-    <t>Output</t>
+    <t>Input File(s)</t>
+  </si>
+  <si>
+    <t>Output File(s)</t>
+  </si>
+  <si>
+    <r>
+      <t>transaction_records_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>account_holder_info_preprocessed.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>transactions_with_from_account_info.csv</t>
+  </si>
+  <si>
+    <r>
+      <t>transactions_with_from_account_info.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>account_holder_info_preprocessed.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>transactions_full_account_info.csv</t>
+  </si>
+  <si>
+    <r>
+      <t>transactions_full_account_info.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>communication_logs_preprocessed.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>transactions_with_communications.csv</t>
+  </si>
+  <si>
+    <r>
+      <t>transactions_with_communications.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>public_records_preprocessed.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>transactions_with_public_records.csv</t>
+  </si>
+  <si>
+    <r>
+      <t>transactions_with_public_records.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>external_databases_preprocessed.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>transactions_enriched.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>transactions_with_communications.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>public_records_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>AccountNumber, matching to FromAccount and ToAccount in transactions. Prepend 'public' to each added column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>transactions_with_public_records.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>external_databases_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>AccountNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, matching to FromAccount and ToAccount in transactions. Prepend 'external' to each added column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>transaction_records_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>account_holder_info_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>FromAccount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> matching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>AccountNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Add "from" as a prefix to each joined column.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>transactions_with_from_account_info.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>account_holder_info_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ToAccount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> matching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>AccountNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Add 'to' as a prefix to each joined column. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>transactions_full_account_info.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>communication_logs_preprocessed.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>AccountNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> matching both </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>FromAccount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ToAccount from transactions. Prepend 'comm' to each joined column,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ensuring communication </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is within one week of transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>communication_logs.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Convert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> columns to a single datetime column named </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in ISO 8601 format (YYYY-MM-DD HH:MM:SS). </t>
+    </r>
+  </si>
+  <si>
+    <t>communication_logs_preprocessed.csv</t>
+  </si>
+  <si>
+    <t>external_databases.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is in ISO 8601 format (YYYY-MM-DD). Remove duplicates based on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>AlertID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>external_databases_preprocessed.csv</t>
+  </si>
+  <si>
+    <t>public_records.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Convert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ISO 8601 format (YYYY-MM-DD).</t>
+    </r>
+  </si>
+  <si>
+    <t>public_records_preprocessed.csv</t>
   </si>
   <si>
     <t>transaction_records.csv</t>
   </si>
   <si>
-    <t>flagged_transactions.csv</t>
-  </si>
-  <si>
-    <t>summary_flagged_accounts.csv, account_holder_info.csv</t>
-  </si>
-  <si>
-    <t>enriched_summary_flagged_accounts.csv, communication_logs.csv</t>
-  </si>
-  <si>
-    <t>updated_summary_with_communications.csv, public_records.csv</t>
-  </si>
-  <si>
-    <t>final_summary_with_public_records.csv, external_databases.csv</t>
-  </si>
-  <si>
-    <t>correlated_summary_with_external_alerts.csv</t>
-  </si>
-  <si>
-    <t>compliance_investigation_report.docx</t>
-  </si>
-  <si>
-    <t>Filter this sheet to include only transactions in the 'FlagReason' column flagged as 'Rapid Large-Sum Transfer'. Save the filtered transactions to a new CSV file.</t>
-  </si>
-  <si>
-    <t>For each unique account in 'FromAccount' and 'ToAccount', create a summary in new columns 'UniqueAccount', 'TotalIncomingTransfers', and 'TotalOutgoingTransfers', including the total number of incoming and outgoing flagged transactions. Save this summary to a new CSV file.</t>
-  </si>
-  <si>
-    <t>Use 'UniqueAccount' from the summary to pull 'HolderName', 'BusinessActivity', and 'RiskLevel' from the account holder information sheet. Create new columns for these details in the enriched summary. Save this enriched summary to a new CSV file.</t>
-  </si>
-  <si>
-    <t>For each 'UniqueAccount' in the enriched summary, find related entries in the communication logs. Summarize these entries in a new column 'CommunicationSummary' and add them to the enriched summary. Save the updated summary to a new CSV file.</t>
-  </si>
-  <si>
-    <t>For each 'UniqueAccount' in the updated summary, check for any related public records. Summarize these records in a new column 'PublicRecordSummary' and add them to the updated summary. Save the final summary to a new CSV file.</t>
-  </si>
-  <si>
-    <t>For each 'UniqueAccount' in the final summary, look for alerts in the external databases sheet. Highlight any accounts with multiple alerts or suspicious activity reports in a new column 'ExternalAlertsSummary'. Save the correlated summary to a new CSV file.</t>
-  </si>
-  <si>
-    <t>summary_flagged_accounts.csv</t>
-  </si>
-  <si>
-    <t>enriched_summary_flagged_accounts.csv</t>
-  </si>
-  <si>
-    <t>updated_summary_with_communications.csv</t>
-  </si>
-  <si>
-    <t>final_summary_with_public_records.csv</t>
-  </si>
-  <si>
-    <t>Review the 'UniqueAccount' column in the correlated summary and identify accounts that warrant further investigation based on 'ExternalAlertsSummary'. Prepare a detailed report summarizing the findings, including suspicious patterns (in a new column 'SuspiciousPatterns') and recommended actions (in a new column 'RecommendedActions'), based on the analysis. For any noted accounts, explain the reasoning. Save the report to a new document.</t>
+    <r>
+      <t xml:space="preserve">Combine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in ISO 8601 format.</t>
+    </r>
+  </si>
+  <si>
+    <t>transaction_records_preprocessed.csv</t>
+  </si>
+  <si>
+    <t>account_holder_info.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Convert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RiskLevel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to categorical with levels (Low, Medium, High). </t>
+    </r>
+  </si>
+  <si>
+    <t>account_holder_info_preprocessed.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,23 +812,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,17 +859,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -147,11 +914,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,127 +1239,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="139.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
